--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcornish\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcornish\AppData\Local\Temp\MicrosoftEdgeDownloads\68238641-aa25-43e8-aecb-0d1c554db5f0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E10F856D-85B2-475B-B4F6-E71BA6025F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75BF560-19C0-4CE8-AA7B-D8CBC1F268E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="8085" windowWidth="21600" windowHeight="11385" xr2:uid="{658CD0EE-23E9-49F6-8C07-DBCAFD081E9C}"/>
+    <workbookView xWindow="1260" yWindow="7800" windowWidth="18900" windowHeight="11055" xr2:uid="{658CD0EE-23E9-49F6-8C07-DBCAFD081E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Ticker</t>
   </si>
@@ -50,142 +50,34 @@
     <t>Berkeley</t>
   </si>
   <si>
-    <t>BDEV</t>
-  </si>
-  <si>
-    <t>Barratt</t>
-  </si>
-  <si>
-    <t>TW</t>
-  </si>
-  <si>
-    <t>Taylor Wimpey</t>
-  </si>
-  <si>
-    <t>PSN</t>
-  </si>
-  <si>
-    <t>Persimmon</t>
-  </si>
-  <si>
-    <t>BWY</t>
-  </si>
-  <si>
-    <t>Belway</t>
-  </si>
-  <si>
-    <t>VTY</t>
-  </si>
-  <si>
-    <t>Vistry</t>
-  </si>
-  <si>
-    <t>RDW</t>
-  </si>
-  <si>
-    <t>Redrow</t>
-  </si>
-  <si>
-    <t>VCP</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>CRN</t>
-  </si>
-  <si>
-    <t>Cairn</t>
-  </si>
-  <si>
-    <t>GLV</t>
-  </si>
-  <si>
-    <t>Glenveagh</t>
-  </si>
-  <si>
-    <t>CRST</t>
-  </si>
-  <si>
-    <t>Crest Nicholson</t>
-  </si>
-  <si>
-    <t>GLE</t>
-  </si>
-  <si>
-    <t>MJ Gleeson</t>
-  </si>
-  <si>
-    <t>HEAD</t>
-  </si>
-  <si>
-    <t>Headlam</t>
-  </si>
-  <si>
-    <t>WJG</t>
-  </si>
-  <si>
-    <t>Watkin Jones</t>
-  </si>
-  <si>
-    <t>CHH</t>
-  </si>
-  <si>
-    <t>Churchill China</t>
-  </si>
-  <si>
-    <t>OPGS</t>
-  </si>
-  <si>
-    <t>UP Global Sourcing</t>
-  </si>
-  <si>
-    <t>SDG</t>
-  </si>
-  <si>
-    <t>Sanderson Design Group</t>
-  </si>
-  <si>
-    <t>SPR</t>
-  </si>
-  <si>
-    <t>Springfield Properties</t>
-  </si>
-  <si>
-    <t>PMP</t>
-  </si>
-  <si>
-    <t>Pertmeirion</t>
-  </si>
-  <si>
-    <t>CFX</t>
-  </si>
-  <si>
-    <t>Colefax</t>
-  </si>
-  <si>
-    <t>LIKE</t>
-  </si>
-  <si>
-    <t>Likewise Group</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>Procook Group</t>
-  </si>
-  <si>
-    <t>AIEA</t>
-  </si>
-  <si>
-    <t>Airea</t>
-  </si>
-  <si>
-    <t>TRAF</t>
-  </si>
-  <si>
-    <t>Trafalgar Property Group</t>
+    <t>RKT</t>
+  </si>
+  <si>
+    <t>Reckitt Benckiser</t>
+  </si>
+  <si>
+    <t>GTLS</t>
+  </si>
+  <si>
+    <t>Chart Industries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FET </t>
+  </si>
+  <si>
+    <t>Forum Energy Technologies</t>
+  </si>
+  <si>
+    <t>BP.</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>AEG</t>
+  </si>
+  <si>
+    <t>Aegon NV</t>
   </si>
 </sst>
 </file>
@@ -537,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A605B1DE-80E8-4F40-9783-B51338A05CF5}">
-  <dimension ref="B2:C26"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,170 +474,26 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcornish\AppData\Local\Temp\MicrosoftEdgeDownloads\68238641-aa25-43e8-aecb-0d1c554db5f0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcornish\AppData\Local\Temp\MicrosoftEdgeDownloads\cb271b76-096f-48c0-a988-9e9eddb21c6c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75BF560-19C0-4CE8-AA7B-D8CBC1F268E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C818655B-7B95-4871-B472-5EA8EB03B7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="7800" windowWidth="18900" windowHeight="11055" xr2:uid="{658CD0EE-23E9-49F6-8C07-DBCAFD081E9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{658CD0EE-23E9-49F6-8C07-DBCAFD081E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Ticker</t>
   </si>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>Aegon NV</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>2022 EV/E</t>
+  </si>
+  <si>
+    <t>2023 EV/E</t>
+  </si>
+  <si>
+    <t>2022 E</t>
+  </si>
+  <si>
+    <t>2023 E</t>
+  </si>
+  <si>
+    <t>2022 RG</t>
   </si>
 </sst>
 </file>
@@ -429,71 +453,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A605B1DE-80E8-4F40-9783-B51338A05CF5}">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
